--- a/Dataset Excel/Communique 4.xlsx
+++ b/Dataset Excel/Communique 4.xlsx
@@ -2,8 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69223B7F-70BC-4D47-9FB7-1FD4E99B0AE5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ElhadjMalangDIEDHIOU\OneDrive\Covid19sn\Datasets\Communiques Ministere\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="656" documentId="8_{5A8DEDD3-2C1B-4D37-BFF6-48C4C875ECA1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{8AC97158-EA6F-419B-B3A5-20658882016C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8D63AA42-D37C-4EEA-9A52-1BB2D5E05BF3}"/>
   </bookViews>
@@ -1040,7 +1045,6 @@
     <dataValidation operator="greaterThan" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{B6A4068D-F80B-45C9-9915-E17AEAB0B9E2}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
@@ -1188,4 +1192,145 @@
     <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010038F85C4C18602F4B945AA8D4F86956EE" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b4d3c0809cf3565d2935b7cb5051ec7f">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0967b7be50301903c78f9c39c6fd9af8">
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all/>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{522F39ED-8F79-4D51-A8DA-17E7EEB25909}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28553361-FCC2-4D23-9DF3-484239AE6DE4}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F621FCC6-03CB-4C67-9A2E-4AACB736EA4E}"/>
 </file>